--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grfica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1318DFFF-64F1-465A-B975-41E9D17B00B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8E958-53C1-4406-B427-F7BA79865B72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>CU002</t>
   </si>
@@ -33,9 +33,6 @@
     <t>CU001</t>
   </si>
   <si>
-    <t>CU000</t>
-  </si>
-  <si>
     <t>CU003</t>
   </si>
   <si>
@@ -84,18 +81,9 @@
     <t>CU018</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>ya</t>
   </si>
   <si>
-    <t xml:space="preserve">Alejandro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel </t>
-  </si>
-  <si>
     <t>Fabian</t>
   </si>
   <si>
@@ -103,6 +91,93 @@
   </si>
   <si>
     <t>Javier</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>CU0018-RegistroPedido.php</t>
+  </si>
+  <si>
+    <t>CU014-FERRETERIA.php</t>
+  </si>
+  <si>
+    <t>CU002-RegistrodeUsuario.php</t>
+  </si>
+  <si>
+    <t>CU004-CREAR-PRODUCTOS.php</t>
+  </si>
+  <si>
+    <t>CU009-ControlUsuarios_rol.php</t>
+  </si>
+  <si>
+    <t>CU0015-CU0016-Solicitud.php</t>
+  </si>
+  <si>
+    <t>CU005-Control de ventas/Facturacion.php</t>
+  </si>
+  <si>
+    <t>CU006-AcomulacionPuntos.php</t>
+  </si>
+  <si>
+    <t>CU008-Catalogo de productos</t>
+  </si>
+  <si>
+    <t>CU001-Autenticación de usuario</t>
+  </si>
+  <si>
+    <t>CU007-Generación de informes</t>
+  </si>
+  <si>
+    <t>CU003-ingreso de productos-bodega</t>
+  </si>
+  <si>
+    <t>CU010-Solicitudes de productos</t>
+  </si>
+  <si>
+    <t>CU017-solicitudes de pedido</t>
+  </si>
+  <si>
+    <t>CU010´-Control de usuarios rol</t>
+  </si>
+  <si>
+    <t>CU011-Informe de bodega</t>
+  </si>
+  <si>
+    <t>CU012-Consulta de clientes</t>
+  </si>
+  <si>
+    <t>CU013-Alertas</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>dav</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Asignacion</t>
+  </si>
+  <si>
+    <t>RF1-RecuperarContrasena.php</t>
   </si>
 </sst>
 </file>
@@ -118,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +206,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,13 +227,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,180 +622,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133BEB89-8072-48D1-A379-DCF06ACF145A}">
-  <dimension ref="A3:C23"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8E958-53C1-4406-B427-F7BA79865B72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D0984-B261-4DD4-BD31-17B9F4C36DCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,61 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
-  <si>
-    <t>CU002</t>
-  </si>
-  <si>
-    <t>CU001</t>
-  </si>
-  <si>
-    <t>CU003</t>
-  </si>
-  <si>
-    <t>CU004</t>
-  </si>
-  <si>
-    <t>CU005</t>
-  </si>
-  <si>
-    <t>CU006</t>
-  </si>
-  <si>
-    <t>CU007</t>
-  </si>
-  <si>
-    <t>CU008</t>
-  </si>
-  <si>
-    <t>CU009</t>
-  </si>
-  <si>
-    <t>CU010</t>
-  </si>
-  <si>
-    <t>CU011</t>
-  </si>
-  <si>
-    <t>CU012</t>
-  </si>
-  <si>
-    <t>CU013</t>
-  </si>
-  <si>
-    <t>CU014</t>
-  </si>
-  <si>
-    <t>CU015</t>
-  </si>
-  <si>
-    <t>CU016</t>
-  </si>
-  <si>
-    <t>CU017</t>
-  </si>
-  <si>
-    <t>CU018</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>ya</t>
   </si>
@@ -153,21 +100,6 @@
     <t>CU013-Alertas</t>
   </si>
   <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>dav</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -178,16 +110,30 @@
   </si>
   <si>
     <t>RF1-RecuperarContrasena.php</t>
+  </si>
+  <si>
+    <t>Echos</t>
+  </si>
+  <si>
+    <t>Faltan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,13 +154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,29 +229,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,341 +579,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133BEB89-8072-48D1-A379-DCF06ACF145A}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="L2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(F3:F21,"Javier")</f>
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIF(F3:F21,"Daniel")</f>
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(F3:F21,"Alejandro")</f>
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(F3:F21,"David")</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(F3:F21,"Fabian")</f>
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIF(B3:B21,"ya")</f>
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIF(B3:B21,"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -967,5 +894,57 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DB71CBB-D738-46FE-8239-CB41472C6D21}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$3:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845792D4-00DC-4D15-A3FD-81CB1FF35AD7}">
+  <dimension ref="A3:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D0984-B261-4DD4-BD31-17B9F4C36DCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D49D191-0F3F-40D1-8C0F-98103A75618D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan de desarrollo" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -233,6 +233,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -242,20 +256,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,7 +582,7 @@
   <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -600,41 +600,41 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
@@ -667,14 +667,14 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
@@ -691,40 +691,40 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
@@ -741,40 +741,40 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
@@ -803,17 +803,17 @@
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -826,14 +826,14 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="2" t="s">
         <v>3</v>
       </c>
@@ -861,27 +861,27 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="2" t="s">
         <v>5</v>
       </c>

--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D49D191-0F3F-40D1-8C0F-98103A75618D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1249063F-775D-4D94-BC3A-76F7E2603F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>ya</t>
   </si>
@@ -49,9 +49,6 @@
     <t>CU0018-RegistroPedido.php</t>
   </si>
   <si>
-    <t>CU014-FERRETERIA.php</t>
-  </si>
-  <si>
     <t>CU002-RegistrodeUsuario.php</t>
   </si>
   <si>
@@ -82,15 +79,9 @@
     <t>CU003-ingreso de productos-bodega</t>
   </si>
   <si>
-    <t>CU010-Solicitudes de productos</t>
-  </si>
-  <si>
     <t>CU017-solicitudes de pedido</t>
   </si>
   <si>
-    <t>CU010´-Control de usuarios rol</t>
-  </si>
-  <si>
     <t>CU011-Informe de bodega</t>
   </si>
   <si>
@@ -109,20 +100,29 @@
     <t>Asignacion</t>
   </si>
   <si>
-    <t>RF1-RecuperarContrasena.php</t>
-  </si>
-  <si>
     <t>Echos</t>
   </si>
   <si>
     <t>Faltan</t>
+  </si>
+  <si>
+    <t>CU010´-Restyablecer contraseña</t>
+  </si>
+  <si>
+    <t>CU016-Solicitudes de productos</t>
+  </si>
+  <si>
+    <t>CU14 Sistema de alertas</t>
+  </si>
+  <si>
+    <t>NF01 -FERRETERIA.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -257,14 +265,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +591,7 @@
   <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,15 +602,15 @@
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>3</v>
@@ -619,10 +628,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -630,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -639,11 +648,11 @@
       </c>
       <c r="G3">
         <f>COUNTIF(F3:F21,"Javier")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <f>COUNTIF(F3:F21,"Daniel")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <f>COUNTIF(F3:F21,"Alejandro")</f>
@@ -659,11 +668,11 @@
       </c>
       <c r="L3">
         <f>COUNTIF(B3:B21,"ya")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3">
         <f>COUNTIF(B3:B21,"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -671,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -682,7 +691,7 @@
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -695,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -708,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -721,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -732,7 +741,7 @@
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -745,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -758,31 +767,32 @@
         <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -793,7 +803,7 @@
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -804,7 +814,7 @@
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
@@ -817,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
@@ -830,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -841,7 +851,7 @@
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -852,7 +862,7 @@
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -874,23 +884,22 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grfica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1318DFFF-64F1-465A-B975-41E9D17B00B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{636A8293-1F5D-4D77-87BE-9837DA2B94AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan de desarrollo" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan de desarrollo'!$B$4:$D$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,77 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
-  <si>
-    <t>CU002</t>
-  </si>
-  <si>
-    <t>CU001</t>
-  </si>
-  <si>
-    <t>CU000</t>
-  </si>
-  <si>
-    <t>CU003</t>
-  </si>
-  <si>
-    <t>CU004</t>
-  </si>
-  <si>
-    <t>CU005</t>
-  </si>
-  <si>
-    <t>CU006</t>
-  </si>
-  <si>
-    <t>CU007</t>
-  </si>
-  <si>
-    <t>CU008</t>
-  </si>
-  <si>
-    <t>CU009</t>
-  </si>
-  <si>
-    <t>CU010</t>
-  </si>
-  <si>
-    <t>CU011</t>
-  </si>
-  <si>
-    <t>CU012</t>
-  </si>
-  <si>
-    <t>CU013</t>
-  </si>
-  <si>
-    <t>CU014</t>
-  </si>
-  <si>
-    <t>CU015</t>
-  </si>
-  <si>
-    <t>CU016</t>
-  </si>
-  <si>
-    <t>CU017</t>
-  </si>
-  <si>
-    <t>CU018</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
   <si>
     <t>ya</t>
   </si>
   <si>
-    <t xml:space="preserve">Alejandro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel </t>
-  </si>
-  <si>
     <t>Fabian</t>
   </si>
   <si>
@@ -103,13 +41,151 @@
   </si>
   <si>
     <t>Javier</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>CU0018-RegistroPedido.php</t>
+  </si>
+  <si>
+    <t>CU002-RegistrodeUsuario.php</t>
+  </si>
+  <si>
+    <t>CU009-ControlUsuarios_rol.php</t>
+  </si>
+  <si>
+    <t>CU0015-CU0016-Solicitud.php</t>
+  </si>
+  <si>
+    <t>CU005-Control de ventas/Facturacion.php</t>
+  </si>
+  <si>
+    <t>CU008-Catalogo de productos</t>
+  </si>
+  <si>
+    <t>CU017-solicitudes de pedido</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Asignacion</t>
+  </si>
+  <si>
+    <t>Echos</t>
+  </si>
+  <si>
+    <t>Faltan</t>
+  </si>
+  <si>
+    <t>CU016-Solicitudes de productos</t>
+  </si>
+  <si>
+    <t>CU0013 Consulta clientes</t>
+  </si>
+  <si>
+    <t>CU014-Sistema de alertas</t>
+  </si>
+  <si>
+    <t>CU001-Login-index</t>
+  </si>
+  <si>
+    <t>CU003-ingresoProducto-bodega</t>
+  </si>
+  <si>
+    <t>CU004-crearProductos</t>
+  </si>
+  <si>
+    <t>CU006-acomulacionPuntos</t>
+  </si>
+  <si>
+    <t>CU011-InformeVentas</t>
+  </si>
+  <si>
+    <t>CCU012-InformeBodega</t>
+  </si>
+  <si>
+    <t>portal.php</t>
+  </si>
+  <si>
+    <t>CU007-GenerarInformes_enlaces a los demas_informes</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>editarProducto</t>
+  </si>
+  <si>
+    <t>editarRol</t>
+  </si>
+  <si>
+    <t>editarUsuario</t>
+  </si>
+  <si>
+    <t>formEdicionCategoria</t>
+  </si>
+  <si>
+    <t>formEdicionEmpresa</t>
+  </si>
+  <si>
+    <t>formEdicionMedida</t>
+  </si>
+  <si>
+    <t>formEmpresa</t>
+  </si>
+  <si>
+    <t>formMedida</t>
+  </si>
+  <si>
+    <t>formRol</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>CU011-tablaVentas</t>
+  </si>
+  <si>
+    <t>Rol-bodega</t>
+  </si>
+  <si>
+    <t>Rol-admin</t>
+  </si>
+  <si>
+    <t>Rol-cliente</t>
+  </si>
+  <si>
+    <t>Rol-comercial</t>
+  </si>
+  <si>
+    <t>Rol-proveedor</t>
+  </si>
+  <si>
+    <t>Rol-supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SICLOUD </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +193,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +231,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -140,13 +258,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,177 +681,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133BEB89-8072-48D1-A379-DCF06ACF145A}">
-  <dimension ref="A3:C23"/>
+  <dimension ref="A2:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13">
+        <f>COUNTIF(D5:D39,"Javier")</f>
+        <v>13</v>
+      </c>
+      <c r="F3" s="13">
+        <f>COUNTIF(D5:D39,"Daniel")</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="13">
+        <f>COUNTIF(D5:D39,"Alejandro")</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="13">
+        <f>COUNTIF(D5:D39,"David")</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="13">
+        <f>COUNTIF(D5:D39,"Fabian")</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="13">
+        <f>COUNTIF(B5:B39,"ya")</f>
+        <v>25</v>
+      </c>
+      <c r="K3" s="13">
+        <f>COUNTIF(B5:B39,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:D39" xr:uid="{A409E96F-C6CE-4F66-9CEC-4881C18137B2}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DB71CBB-D738-46FE-8239-CB41472C6D21}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$3:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D18:D33 D5:D10 D12:D15 D16:D17 D34:D39 D11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845792D4-00DC-4D15-A3FD-81CB1FF35AD7}">
+  <dimension ref="A3:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{636A8293-1F5D-4D77-87BE-9837DA2B94AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8241D65-FD6C-42B3-A494-CCCF84E234FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="50">
   <si>
     <t>ya</t>
   </si>
@@ -189,14 +189,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,6 +205,14 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,18 +342,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -361,12 +357,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,51 +690,51 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="13">
         <f>COUNTIF(D5:D39,"Javier")</f>
         <v>13</v>
@@ -759,28 +764,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -788,13 +793,13 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -802,13 +807,13 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -816,13 +821,13 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -830,13 +835,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -844,39 +849,39 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -884,13 +889,13 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -898,13 +903,13 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -912,13 +917,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -926,11 +931,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -938,11 +943,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -950,13 +955,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -964,13 +969,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -978,13 +983,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -992,13 +997,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="A21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1006,13 +1011,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1020,13 +1025,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1034,13 +1039,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1048,13 +1053,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1062,13 +1067,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="A26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1076,13 +1081,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1090,13 +1095,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1104,13 +1109,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1118,13 +1123,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="A30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1132,13 +1137,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1146,13 +1151,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="A32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1160,13 +1165,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="A33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1174,11 +1179,11 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="11" t="s">
+      <c r="A34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1186,11 +1191,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1198,11 +1203,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="11" t="s">
+      <c r="A36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1210,11 +1215,11 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="11" t="s">
+      <c r="A37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1222,11 +1227,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1234,11 +1239,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="11" t="s">
+      <c r="A39" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="1" t="s">

--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8241D65-FD6C-42B3-A494-CCCF84E234FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A613DA64-49DA-4322-9783-F8A3078D4D8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
   <si>
     <t>ya</t>
   </si>
@@ -112,9 +112,6 @@
     <t>CCU012-InformeBodega</t>
   </si>
   <si>
-    <t>portal.php</t>
-  </si>
-  <si>
     <t>CU007-GenerarInformes_enlaces a los demas_informes</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">SICLOUD </t>
+  </si>
+  <si>
+    <t>CU0019-ServiciosPortal.php</t>
   </si>
 </sst>
 </file>
@@ -358,9 +358,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,6 +367,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,8 +689,8 @@
   <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,85 +702,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="A2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="12">
         <f>COUNTIF(D5:D39,"Javier")</f>
         <v>13</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f>COUNTIF(D5:D39,"Daniel")</f>
         <v>5</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f>COUNTIF(D5:D39,"Alejandro")</f>
         <v>5</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f>COUNTIF(D5:D39,"David")</f>
         <v>6</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <f>COUNTIF(D5:D39,"Fabian")</f>
         <v>6</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <f>COUNTIF(B5:B39,"ya")</f>
         <v>25</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <f>COUNTIF(B5:B39,"")</f>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>0</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>0</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>0</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
@@ -865,11 +865,11 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="9" t="s">
@@ -890,7 +890,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>0</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>0</v>
@@ -918,13 +918,13 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
@@ -944,7 +944,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="9" t="s">
@@ -956,7 +956,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>0</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>0</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>0</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>0</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>0</v>
@@ -1026,13 +1026,13 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>2</v>
@@ -1054,13 +1054,13 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -1096,13 +1096,13 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -1124,13 +1124,13 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -1138,13 +1138,13 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -1166,13 +1166,13 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -1180,11 +1180,11 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -1192,11 +1192,11 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
@@ -1204,11 +1204,11 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
@@ -1216,11 +1216,11 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>4</v>
@@ -1228,11 +1228,11 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>2</v>
@@ -1240,11 +1240,11 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>4</v>

--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A613DA64-49DA-4322-9783-F8A3078D4D8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496108F3-9BA6-48EE-9C50-AFDF605F3663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan de desarrollo'!$B$4:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan de desarrollo'!$B$4:$D$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
   <si>
     <t>ya</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>CU0019-ServiciosPortal.php</t>
+  </si>
+  <si>
+    <t>CU0010-recuperarContrasena</t>
   </si>
 </sst>
 </file>
@@ -342,10 +345,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -370,6 +371,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -686,11 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133BEB89-8072-48D1-A379-DCF06ACF145A}">
-  <dimension ref="A2:K39"/>
+  <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,555 +711,570 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="12">
-        <f>COUNTIF(D5:D39,"Javier")</f>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10">
+        <f>COUNTIF(D5:D40,"Javier")</f>
         <v>13</v>
       </c>
-      <c r="F3" s="12">
-        <f>COUNTIF(D5:D39,"Daniel")</f>
+      <c r="F3" s="10">
+        <f>COUNTIF(D5:D40,"Daniel")</f>
         <v>5</v>
       </c>
-      <c r="G3" s="12">
-        <f>COUNTIF(D5:D39,"Alejandro")</f>
+      <c r="G3" s="10">
+        <f>COUNTIF(D5:D40,"Alejandro")</f>
+        <v>6</v>
+      </c>
+      <c r="H3" s="10">
+        <f>COUNTIF(D5:D40,"David")</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="10">
+        <f>COUNTIF(D5:D40,"Fabian")</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="10">
+        <f>COUNTIF(B5:B40,"ya")</f>
+        <v>26</v>
+      </c>
+      <c r="K3" s="10">
+        <f>COUNTIF(B5:B40,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="12">
-        <f>COUNTIF(D5:D39,"David")</f>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="12">
-        <f>COUNTIF(D5:D39,"Fabian")</f>
-        <v>6</v>
-      </c>
-      <c r="J3" s="12">
-        <f>COUNTIF(B5:B39,"ya")</f>
-        <v>25</v>
-      </c>
-      <c r="K3" s="12">
-        <f>COUNTIF(B5:B39,"")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D23" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="9" t="s">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1264,7 +1292,7 @@
           <x14:formula1>
             <xm:f>Hoja2!$A$3:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D18:D33 D5:D10 D12:D15 D16:D17 D34:D39 D11</xm:sqref>
+          <xm:sqref>D5:D40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496108F3-9BA6-48EE-9C50-AFDF605F3663}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D942CA2-351D-4754-B15E-D34FA2B5C6F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>home</t>
   </si>
   <si>
-    <t>CU011-tablaVentas</t>
-  </si>
-  <si>
     <t>Rol-bodega</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>CU0010-recuperarContrasena</t>
+  </si>
+  <si>
+    <t>CU0011-tablaVentas</t>
   </si>
 </sst>
 </file>
@@ -370,9 +370,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,6 +380,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -699,11 +699,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133BEB89-8072-48D1-A379-DCF06ACF145A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10:E11"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,17 +712,17 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
@@ -745,10 +746,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="10">
         <f>COUNTIF(D5:D40,"Javier")</f>
         <v>13</v>
@@ -788,11 +789,11 @@
       <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -802,11 +803,11 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -816,7 +817,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -830,11 +831,11 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -844,11 +845,11 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
@@ -858,11 +859,11 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -872,12 +873,12 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -885,12 +886,12 @@
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -898,11 +899,11 @@
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -912,7 +913,7 @@
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -924,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
@@ -940,7 +941,7 @@
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -952,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -966,7 +967,7 @@
       <c r="C17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -978,7 +979,7 @@
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -992,11 +993,11 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
@@ -1006,11 +1007,11 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -1020,11 +1021,11 @@
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1034,11 +1035,11 @@
       <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -1048,25 +1049,25 @@
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -1076,11 +1077,11 @@
       <c r="C25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
@@ -1090,11 +1091,11 @@
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
@@ -1104,11 +1105,11 @@
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1118,11 +1119,11 @@
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1132,11 +1133,11 @@
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
@@ -1146,11 +1147,11 @@
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1160,11 +1161,11 @@
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -1174,11 +1175,11 @@
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1188,11 +1189,11 @@
       <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>30</v>
       </c>
@@ -1202,31 +1203,31 @@
       <c r="C34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1236,50 +1237,56 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:D39" xr:uid="{A409E96F-C6CE-4F66-9CEC-4881C18137B2}"/>
+  <autoFilter ref="B4:D40" xr:uid="{A409E96F-C6CE-4F66-9CEC-4881C18137B2}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Alejandro"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A2:D3"/>
   </mergeCells>

--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\proyecto-sicloud\03-Desarrollo\Interface_grafica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D942CA2-351D-4754-B15E-D34FA2B5C6F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACEBAEB-80AA-4D86-A7E3-3C33BBEC350E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
@@ -154,6 +154,9 @@
     <t>home</t>
   </si>
   <si>
+    <t>CU011-tablaVentas</t>
+  </si>
+  <si>
     <t>Rol-bodega</t>
   </si>
   <si>
@@ -179,9 +182,6 @@
   </si>
   <si>
     <t>CU0010-recuperarContrasena</t>
-  </si>
-  <si>
-    <t>CU0011-tablaVentas</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -807,7 +807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -917,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>5</v>
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>5</v>
@@ -971,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
@@ -983,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>1</v>
@@ -1213,31 +1213,31 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>5</v>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>4</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>4</v>
@@ -1283,7 +1283,7 @@
   <autoFilter ref="B4:D40" xr:uid="{A409E96F-C6CE-4F66-9CEC-4881C18137B2}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Alejandro"/>
+        <filter val="Fabian"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/03-Desarrollo/Interface_grafica/Cronograma.xlsx
+++ b/03-Desarrollo/Interface_grafica/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyecto\Interface_grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACEBAEB-80AA-4D86-A7E3-3C33BBEC350E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBB90BF-2C03-4ACC-8B69-F5F1CA0307EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D05BC6D-79FF-400D-ABDD-53A8E7B89697}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de desarrollo" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
   <si>
     <t>ya</t>
   </si>
@@ -221,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +258,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -345,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -382,8 +400,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,11 +726,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133BEB89-8072-48D1-A379-DCF06ACF145A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:K40"/>
+  <dimension ref="A2:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,12 +743,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
@@ -746,10 +772,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="10">
         <f>COUNTIF(D5:D40,"Javier")</f>
         <v>13</v>
@@ -772,11 +798,11 @@
       </c>
       <c r="J3" s="10">
         <f>COUNTIF(B5:B40,"ya")</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="10">
         <f>COUNTIF(B5:B40,"")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -895,8 +921,10 @@
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -1221,10 +1249,12 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="16" t="s">
@@ -1278,6 +1308,9 @@
       <c r="D40" s="16" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:D40" xr:uid="{A409E96F-C6CE-4F66-9CEC-4881C18137B2}">
